--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_7.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_7.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_1_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9978304548432515</v>
+        <v>0.9316478550637682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8283457837021337</v>
+        <v>0.7203054675782892</v>
       </c>
       <c r="D2" t="n">
-        <v>0.820894489408629</v>
+        <v>0.6502629646522011</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9954429718419241</v>
+        <v>0.90167862187321</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009030789634949682</v>
+        <v>0.2845176280828436</v>
       </c>
       <c r="G2" t="n">
-        <v>1.147852534778821</v>
+        <v>1.870318626178882</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6406500262511376</v>
+        <v>1.250989096520613</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01706759961282218</v>
+        <v>0.3049325932871585</v>
       </c>
       <c r="J2" t="n">
-        <v>0.19125447805759</v>
+        <v>1.261172264967495</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09503046687746873</v>
+        <v>0.5334019385818199</v>
       </c>
       <c r="L2" t="n">
-        <v>1.138850890031904</v>
+        <v>0.9069247388102376</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09652710173517347</v>
+        <v>0.5418024859081648</v>
       </c>
       <c r="N2" t="n">
-        <v>139.4142309392911</v>
+        <v>36.51392013141685</v>
       </c>
       <c r="O2" t="n">
-        <v>280.7494034825075</v>
+        <v>73.47850371964267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_1_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9978003184955916</v>
+        <v>0.931468194936047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8283096285751891</v>
+        <v>0.7200061636506259</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8209551853892338</v>
+        <v>0.6627230720408419</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9954211940668127</v>
+        <v>0.8999277368645585</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009156232986629091</v>
+        <v>0.2852654681608396</v>
       </c>
       <c r="G3" t="n">
-        <v>1.148094304279179</v>
+        <v>1.872320072921334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.640432920247869</v>
+        <v>1.206420014869983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01714916468838591</v>
+        <v>0.3103627643893907</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1931620197771498</v>
+        <v>1.262278723096376</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09568820714502436</v>
+        <v>0.5341024884428452</v>
       </c>
       <c r="L3" t="n">
-        <v>1.140779616282138</v>
+        <v>0.9066800952320641</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09719520075444404</v>
+        <v>0.5425140687292084</v>
       </c>
       <c r="N3" t="n">
-        <v>139.3866408617642</v>
+        <v>36.50867013005774</v>
       </c>
       <c r="O3" t="n">
-        <v>280.7218134049807</v>
+        <v>73.47325371828356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_7</t>
+          <t>model_1_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9975006068555166</v>
+        <v>0.9315053221826666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8282878159706469</v>
+        <v>0.7198471504117734</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8207495930386065</v>
+        <v>0.6609404117249458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.995330742768456</v>
+        <v>0.8996472547336032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01040379068979285</v>
+        <v>0.2851109250056057</v>
       </c>
       <c r="G4" t="n">
-        <v>1.14824016526619</v>
+        <v>1.873383395181729</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6411683121651337</v>
+        <v>1.212796487455359</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01748793515265818</v>
+        <v>0.3112326478795571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2103345069818627</v>
+        <v>1.262301178778437</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1019989739644123</v>
+        <v>0.5339577932810848</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15996116124694</v>
+        <v>0.90673065148278</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1036053558427849</v>
+        <v>0.5423670947632923</v>
       </c>
       <c r="N4" t="n">
-        <v>139.1311700996835</v>
+        <v>36.50975392778056</v>
       </c>
       <c r="O4" t="n">
-        <v>280.4663426429</v>
+        <v>73.47433751600637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_6</t>
+          <t>model_1_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9974651666294911</v>
+        <v>0.9315491841667614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8282643923470505</v>
+        <v>0.7196528626034242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8207748669803354</v>
+        <v>0.6602753383566633</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9953245659475302</v>
+        <v>0.8994259169292341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0105513115767654</v>
+        <v>0.2849283483258353</v>
       </c>
       <c r="G5" t="n">
-        <v>1.148396799145035</v>
+        <v>1.874682598650773</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6410779087410365</v>
+        <v>1.215175416330536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01751106941972549</v>
+        <v>0.3119191019545977</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2124391114246404</v>
+        <v>1.262297298147087</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1027195773782457</v>
+        <v>0.533786800441745</v>
       </c>
       <c r="L5" t="n">
-        <v>1.162229335712567</v>
+        <v>0.9067903784398452</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1043373080400471</v>
+        <v>0.542193408957663</v>
       </c>
       <c r="N5" t="n">
-        <v>139.1030102134292</v>
+        <v>36.51103507941031</v>
       </c>
       <c r="O5" t="n">
-        <v>280.4381827566456</v>
+        <v>73.47561866763614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_5</t>
+          <t>model_1_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9972134019372084</v>
+        <v>0.9316326921673906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8280728571175746</v>
+        <v>0.719286006811704</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8204911019831795</v>
+        <v>0.6604966810275344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9951943174774116</v>
+        <v>0.8989947107547793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01159928882971238</v>
+        <v>0.2845807440438165</v>
       </c>
       <c r="G6" t="n">
-        <v>1.149677596106478</v>
+        <v>1.877135765019222</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6420929196822235</v>
+        <v>1.214383686431015</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01799889364662351</v>
+        <v>0.3132564389562047</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2289226107088214</v>
+        <v>1.262529001551133</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1076999945669097</v>
+        <v>0.5334610989039562</v>
       </c>
       <c r="L6" t="n">
-        <v>1.178342276018661</v>
+        <v>0.9069040914619787</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1093961618208419</v>
+        <v>0.5418625779462362</v>
       </c>
       <c r="N6" t="n">
-        <v>138.9136229810653</v>
+        <v>36.51347651066991</v>
       </c>
       <c r="O6" t="n">
-        <v>280.2487955242817</v>
+        <v>73.47806009889574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_4</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9971638478277871</v>
+        <v>0.9320631060105216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8280388864612149</v>
+        <v>0.7190241988656192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8205214168639969</v>
+        <v>0.6632470955878964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9951561346498174</v>
+        <v>0.8958107086666931</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01180555913311634</v>
+        <v>0.282789134931098</v>
       </c>
       <c r="G7" t="n">
-        <v>1.149904758041976</v>
+        <v>1.878886475960205</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6419844851112972</v>
+        <v>1.2045456130268</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01814190114863064</v>
+        <v>0.3231312599996995</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2316595947410339</v>
+        <v>1.26744870267655</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1086533898832261</v>
+        <v>0.5317792163399186</v>
       </c>
       <c r="L7" t="n">
-        <v>1.181513739021625</v>
+        <v>0.9074901869079443</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1103645721603446</v>
+        <v>0.5401542074130807</v>
       </c>
       <c r="N7" t="n">
-        <v>138.8783694909469</v>
+        <v>36.52610753063813</v>
       </c>
       <c r="O7" t="n">
-        <v>280.2135420341633</v>
+        <v>73.49069111886395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_1</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9959944175045817</v>
+        <v>0.9320431930286903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.827900528200635</v>
+        <v>0.7189853563176372</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8182365114796755</v>
+        <v>0.6630953984963852</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9941287542332304</v>
+        <v>0.8960183341046409</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01667334407354434</v>
+        <v>0.2828720232495838</v>
       </c>
       <c r="G8" t="n">
-        <v>1.150829960367556</v>
+        <v>1.879146216257415</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6501574591845888</v>
+        <v>1.205088224727233</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02198978555752674</v>
+        <v>0.3224873332725523</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2684806549457238</v>
+        <v>1.26712430208356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1291253037694175</v>
+        <v>0.5318571455283682</v>
       </c>
       <c r="L8" t="n">
-        <v>1.256357279706769</v>
+        <v>0.9074630713582166</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1311588982258374</v>
+        <v>0.5402333639083478</v>
       </c>
       <c r="N8" t="n">
-        <v>138.187887996092</v>
+        <v>36.52552139656914</v>
       </c>
       <c r="O8" t="n">
-        <v>279.5230605393083</v>
+        <v>73.49010498479495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_0</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9959294173317421</v>
+        <v>0.9320001318542577</v>
       </c>
       <c r="C9" t="n">
-        <v>0.827831712968205</v>
+        <v>0.7189148470321276</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8182478077223448</v>
+        <v>0.6627789032001264</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9940724481823285</v>
+        <v>0.8964362019795059</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0169439090282881</v>
+        <v>0.2830512665377565</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15129012814368</v>
+        <v>1.879617712174282</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6501170531795541</v>
+        <v>1.206220310050498</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02220067061226813</v>
+        <v>0.3211913634930231</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2707944603762039</v>
+        <v>1.266472756371383</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1301687713251074</v>
+        <v>0.5320256258280766</v>
       </c>
       <c r="L9" t="n">
-        <v>1.260517290768504</v>
+        <v>0.9074044348653721</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1322187993524446</v>
+        <v>0.540404497604358</v>
       </c>
       <c r="N9" t="n">
-        <v>138.1556937182013</v>
+        <v>36.52425448780323</v>
       </c>
       <c r="O9" t="n">
-        <v>279.4908662614178</v>
+        <v>73.48883807602905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_2</t>
+          <t>model_1_7_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9961994078869011</v>
+        <v>0.9319769385968539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8276102061155737</v>
+        <v>0.7188864116358563</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8186066554413219</v>
+        <v>0.6626140504082515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9937175608776582</v>
+        <v>0.896646303430464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01582006613454611</v>
+        <v>0.2831478090908862</v>
       </c>
       <c r="G10" t="n">
-        <v>1.152771345487171</v>
+        <v>1.879807859800082</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6488334756959595</v>
+        <v>1.206809978928321</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02352984265459</v>
+        <v>0.3205397576925894</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2574342221406498</v>
+        <v>1.26614424264323</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1257778443707242</v>
+        <v>0.5321163492046511</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24323789523833</v>
+        <v>0.9073728525574181</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1277587196878465</v>
+        <v>0.5404966497834236</v>
       </c>
       <c r="N10" t="n">
-        <v>138.2929522724246</v>
+        <v>36.52357244815872</v>
       </c>
       <c r="O10" t="n">
-        <v>279.628124815641</v>
+        <v>73.48815603638454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_3</t>
+          <t>model_1_7_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9962702901365512</v>
+        <v>0.9317787479944379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8276032978879827</v>
+        <v>0.718731402750971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8186577345924019</v>
+        <v>0.6613224987121479</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9938243710538611</v>
+        <v>0.8981350144899173</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01552501687804564</v>
+        <v>0.2839727827645042</v>
       </c>
       <c r="G11" t="n">
-        <v>1.152817540836881</v>
+        <v>1.880844404927061</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6486507685342859</v>
+        <v>1.211429784456814</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02312980270338257</v>
+        <v>0.3159226893330619</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2553743208681106</v>
+        <v>1.263833728120752</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1245994256730168</v>
+        <v>0.5328909670509571</v>
       </c>
       <c r="L11" t="n">
-        <v>1.238701431260722</v>
+        <v>0.9071029759924262</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1265617420736367</v>
+        <v>0.541283467086475</v>
       </c>
       <c r="N11" t="n">
-        <v>138.330605128021</v>
+        <v>36.51775376149936</v>
       </c>
       <c r="O11" t="n">
-        <v>279.6657776712374</v>
+        <v>73.48233734972519</v>
       </c>
     </row>
   </sheetData>
